--- a/case study.xlsx
+++ b/case study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbu/Repositories/trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358EC170-E33A-804F-8361-B68738183DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F122FB-E720-1543-BF00-C58764979A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{7C65CC06-6E43-054F-AA1D-438B86B63EA2}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{7C65CC06-6E43-054F-AA1D-438B86B63EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Opt 1" sheetId="5" r:id="rId1"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2F165-ACA3-144A-A977-D55220A43CB8}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034ABE1E-B77A-ED4A-B60A-B46BFC78B473}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M1048576"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4947,7 +4947,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5954,8 +5954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5634957-D3FC-DB43-A87E-B686B5EFE6A7}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
